--- a/heliospereステージ配置.xlsx
+++ b/heliospereステージ配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="25">
   <si>
     <t>ステージ１</t>
     <phoneticPr fontId="1"/>
@@ -198,6 +198,62 @@
   </si>
   <si>
     <t>ステージ９</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[0][1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1][1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[8][7]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[12][4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルステージ。フレンドは配置しない。
+プレイヤーに移動と彗星の仕組みに慣れさせ、移動範囲を理解させる。</t>
+    <rPh sb="17" eb="19">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反時計回り</t>
+    <rPh sb="0" eb="4">
+      <t>ハントケイマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1][0]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -834,8 +890,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,43 +907,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -908,10 +961,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -927,6 +992,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -954,6 +1025,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,22 +1093,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1309,16 +1392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>51547</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>32497</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1327,8 +1410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8162924" y="1800225"/>
-          <a:ext cx="257175" cy="257175"/>
+          <a:off x="6494929" y="2374526"/>
+          <a:ext cx="261097" cy="254373"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2660,6 +2743,207 @@
             </a:rPr>
             <a:t>配置理由</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>71158</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>65555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>189379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="楕円 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6794687" y="2889437"/>
+          <a:ext cx="365872" cy="359148"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="190500"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111499</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>196103</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="2896161"/>
+          <a:ext cx="365872" cy="359148"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="190500"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>84605</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="楕円 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4847105" y="4998384"/>
+          <a:ext cx="365872" cy="359148"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="190500"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -19313,8 +19597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19323,315 +19607,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -19657,14 +19953,14 @@
       <c r="AF25" s="8"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -19691,14 +19987,14 @@
       <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -19725,14 +20021,14 @@
       <c r="AF27" s="11"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -19760,13 +20056,13 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="12"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -19826,8 +20122,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
     <mergeCell ref="AB16:AF22"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -19841,7 +20135,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="A25:D25"/>
@@ -19854,6 +20147,9 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19866,8 +20162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19876,314 +20172,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -20210,14 +20514,14 @@
       <c r="AF25" s="8"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -20244,14 +20548,14 @@
       <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -20278,14 +20582,14 @@
       <c r="AF27" s="11"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -20313,13 +20617,13 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="12"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -20379,8 +20683,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
     <mergeCell ref="AB16:AF22"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -20394,7 +20696,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="A25:D25"/>
@@ -20407,6 +20708,9 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20429,474 +20733,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="71"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="11"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="71"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="71"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -20913,6 +21217,8 @@
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
@@ -20925,8 +21231,10 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="E18:H18"/>
@@ -20935,12 +21243,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
@@ -20960,6 +21262,8 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20982,474 +21286,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="71"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="11"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="71"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="71"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -21485,8 +21789,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
     <mergeCell ref="AB16:AF22"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -21500,7 +21802,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="A25:D25"/>
@@ -21513,6 +21814,9 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21526,7 +21830,7 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21535,474 +21839,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="71"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="11"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="71"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="71"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -22038,8 +22342,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
     <mergeCell ref="AB16:AF22"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -22053,7 +22355,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="A25:D25"/>
@@ -22066,6 +22367,9 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22088,474 +22392,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="71"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="11"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="71"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="71"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -22591,8 +22895,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
     <mergeCell ref="AB16:AF22"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -22606,7 +22908,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="A25:D25"/>
@@ -22619,6 +22920,9 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22641,474 +22945,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="71"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="11"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="71"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="71"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -23144,8 +23448,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
     <mergeCell ref="AB16:AF22"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -23159,7 +23461,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="A25:D25"/>
@@ -23172,6 +23473,9 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23194,474 +23498,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="71"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="11"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="71"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="71"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -23697,8 +24001,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
     <mergeCell ref="AB16:AF22"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -23712,7 +24014,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="A25:D25"/>
@@ -23725,6 +24026,9 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23747,474 +24051,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="71"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="11"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="71"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="71"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -24250,8 +24554,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
     <mergeCell ref="AB16:AF22"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -24265,7 +24567,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="A25:D25"/>
@@ -24278,6 +24579,9 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24300,474 +24604,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="71"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="11"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="71"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="71"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -24803,8 +25107,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
     <mergeCell ref="AB16:AF22"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -24818,7 +25120,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="A25:D25"/>
@@ -24831,6 +25132,9 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24853,474 +25157,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="35"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="34" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="35"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="28" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="32"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="AB16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="71"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="11"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="71"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="71"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -25356,8 +25660,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
     <mergeCell ref="AB16:AF22"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
@@ -25371,7 +25673,6 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="A25:D25"/>
@@ -25384,6 +25685,9 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
